--- a/complaindata/out.xlsx
+++ b/complaindata/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>个数</t>
   </si>
@@ -22,6 +22,12 @@
     <t>比例</t>
   </si>
   <si>
+    <t>涨幅</t>
+  </si>
+  <si>
+    <t>地市</t>
+  </si>
+  <si>
     <t>杭州</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>其他</t>
   </si>
   <si>
+    <t>全省</t>
+  </si>
+  <si>
     <t>35.26%</t>
   </si>
   <si>
@@ -92,6 +101,15 @@
   </si>
   <si>
     <t>0.23%</t>
+  </si>
+  <si>
+    <t>468.38%</t>
+  </si>
+  <si>
+    <t>12.59%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
   </si>
 </sst>
 </file>
@@ -449,150 +467,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2427</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>427</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>894</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>794</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>827</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>827</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>799</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>799</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>719</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>719</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>369</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>199</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>6883</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
